--- a/20200425-0531疫苗预约信息查询（简易）.xlsx
+++ b/20200425-0531疫苗预约信息查询（简易）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leoli/Desktop/Delta intern/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leoli/Desktop/Delta052AgeCheck/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359DE5B5-FD62-8449-BEAD-F68DBBB14E91}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA3D7E3E-DF20-6F4F-A6E4-6C41614D641C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="20540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4899,8 +4899,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:T471"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="C97" zoomScale="101" workbookViewId="0">
+      <selection activeCell="R106" sqref="R106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
